--- a/results/results-chaos.xlsx
+++ b/results/results-chaos.xlsx
@@ -795,7 +795,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -808,7 +808,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAE</t>
+          <t>MAPE</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -847,7 +847,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>precision</t>
+          <t>nRMSE</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -860,7 +860,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>RMSPE</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -873,7 +873,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RMdSPE</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -886,7 +886,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RMSPE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -899,7 +899,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nRMSE</t>
+          <t>RMSLE</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -912,7 +912,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RMSLE</t>
+          <t>precision</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -925,7 +925,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>RMdSPE</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1252,7 +1252,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>note factors that were not accounted for in their model</t>
+          <t>data</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1265,7 +1265,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>note factors that were not accounted for in their model</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1497,7 +1497,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>policy</t>
+          <t>climate</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1510,7 +1510,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>climate</t>
+          <t>policy</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1523,7 +1523,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mobility</t>
+          <t>demographics</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1536,7 +1536,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>demographics</t>
+          <t>mobility</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1585,7 +1585,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>General Physics and Astronomy</t>
+          <t>Statistical and Nonlinear Physics</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1598,7 +1598,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>General Mathematics</t>
+          <t>General Physics and Astronomy</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1611,7 +1611,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Statistical and Nonlinear Physics</t>
+          <t>General Mathematics</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1973,7 +1973,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>county or smaller</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1986,7 +1986,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>county or smaller</t>
+          <t>state</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2162,7 +2162,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>symptomatic cases</t>
+          <t>end dates of pandemic</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2188,7 +2188,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ventilators</t>
+          <t>peak cases date</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2201,7 +2201,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>peak deaths</t>
+          <t>ventilators</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2214,7 +2214,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>peak cases date</t>
+          <t>symptomatic cases</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2227,7 +2227,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>attack rate</t>
+          <t>peak deaths</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2240,7 +2240,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>end dates of pandemic</t>
+          <t>total deaths</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2253,7 +2253,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>total deaths</t>
+          <t>attack rate</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/results/results-chaos.xlsx
+++ b/results/results-chaos.xlsx
@@ -11,22 +11,23 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_cats" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_cat_counts" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="method_cats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="goal_cats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="region_level" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="region_level_full" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="target_cats" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats_evaluable" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats_evaluated" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_subcats" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_metrics" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_metric_counts" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uncertainty_cats" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uncertainty_subcats" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limitation_cats" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limitation_cat_counts" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="journals" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="journal_subjects" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="forecasting_window" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scenarios-interventions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="region_level" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="region_level_full" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="target_cats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats_evaluable" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats_evaluated" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_subcats" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_metrics" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_metric_counts" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uncertainty_cats" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uncertainty_subcats" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limitation_cats" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limitation_cat_counts" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="journals" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="journal_subjects" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,27 +558,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>compare internally</t>
+          <t>metric-based</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5625</v>
+        <v>0.5909090909090909</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>evaluate one model</t>
+          <t>not evaluable</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1875</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
   </sheetData>
@@ -599,6 +600,81 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>occurances</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>compare internally</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evaluate one model</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -660,7 +736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,7 +824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -795,7 +871,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAE</t>
+          <t>MAPE</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -808,7 +884,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -834,7 +910,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sMAPE</t>
+          <t>EV</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -847,7 +923,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>nRMSE</t>
+          <t>sMAPE</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -860,7 +936,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RMSPE</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -873,7 +949,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>precision</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -886,7 +962,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>RMSLE</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -899,7 +975,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RMSLE</t>
+          <t>nRMSE</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -912,7 +988,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>precision</t>
+          <t>RMSPE</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -925,7 +1001,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RMdSPE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -938,7 +1014,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EV</t>
+          <t>RMdSPE</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -953,7 +1029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1055,7 +1131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1110,94 +1186,6 @@
       </c>
       <c r="C3" t="n">
         <v>0.1818181818181818</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>occurances</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>18</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8181818181818182</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>95% CIs</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09090909090909091</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>some kind of PIs</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04545454545454546</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>some kind of PIs shown on plots but not specified what it is</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04545454545454546</v>
       </c>
     </row>
   </sheetData>
@@ -1239,7 +1227,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1252,7 +1240,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>95% CIs</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1265,20 +1253,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>note factors that were not accounted for in their model</t>
+          <t>some kind of PIs</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>limitations specific to the methods used</t>
+          <t>some kind of PIs shown on plots but not specified what it is</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1294,6 +1282,94 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>occurances</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>note factors that were not accounted for in their model</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>limitations specific to the methods used</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1355,55 +1431,6 @@
       </c>
       <c r="C4" t="n">
         <v>0.04545454545454546</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>occurances</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Chaos, Solitons &amp; Fractals</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>22</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +1524,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>climate</t>
+          <t>mobility</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1510,7 +1537,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>policy</t>
+          <t>climate</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1536,7 +1563,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mobility</t>
+          <t>policy</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1552,6 +1579,55 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>occurances</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Chaos, Solitons &amp; Fractals</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +1661,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Statistical and Nonlinear Physics</t>
+          <t>General Physics and Astronomy</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1598,7 +1674,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>General Physics and Astronomy</t>
+          <t>General Mathematics</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1611,7 +1687,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>General Mathematics</t>
+          <t>Applied Mathematics</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1624,7 +1700,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Applied Mathematics</t>
+          <t>Statistical and Nonlinear Physics</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1844,7 +1920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1893,32 +1969,6 @@
       </c>
       <c r="C3" t="n">
         <v>0.3636363636363636</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Interventions</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04545454545454546</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Scenarios</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04545454545454546</v>
       </c>
     </row>
   </sheetData>
@@ -1958,11 +2008,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>national</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
         <v>21</v>
       </c>
@@ -1973,7 +2019,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>county or smaller</t>
+          <t>Interventions</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1986,7 +2032,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>Scenarios</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2061,7 +2107,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>county</t>
+          <t>county or smaller</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2077,6 +2123,81 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>occurances</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9545454545454546</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>county</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2162,7 +2283,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>end dates of pandemic</t>
+          <t>attack rate</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2175,7 +2296,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>duration of outbreak</t>
+          <t>peak deaths</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2188,7 +2309,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>peak cases date</t>
+          <t>duration of outbreak</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2201,7 +2322,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ventilators</t>
+          <t>peak cases date</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2214,7 +2335,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>symptomatic cases</t>
+          <t>end dates of pandemic</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2227,7 +2348,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>peak deaths</t>
+          <t>critical care beds</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2240,7 +2361,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>total deaths</t>
+          <t>ventilators</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2253,7 +2374,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>attack rate</t>
+          <t>symptomatic cases</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2266,7 +2387,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>critical care beds</t>
+          <t>total deaths</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2274,81 +2395,6 @@
       </c>
       <c r="C14" t="n">
         <v>0.04545454545454546</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>occurances</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>metric-based</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>13</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5909090909090909</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>not evaluable</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1363636363636364</v>
       </c>
     </row>
   </sheetData>
